--- a/doc/解析_メモアプリ.xlsx
+++ b/doc/解析_メモアプリ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\git\FastAPIToDo\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A044AB0-436F-4773-AF4E-77F52BE36BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC09E1DB-6521-48C8-AF9C-96D35958CB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="758">
   <si>
     <t>// グローバルスコープでFastAPIのURLを定義</t>
   </si>
@@ -26117,14 +26117,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>引数 message を受け取り、アラートダイアログで表示します。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>編集中のメモIDを保持する変数</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>フォームを新規登録モードにリセットし、各入力フィールドをクリアします。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -26234,6 +26226,283 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>レイガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引数 message を受け取り、アラートダイアログで表示します。どんな仕組みでコールされる？</t>
+    <rPh sb="36" eb="38">
+      <t>シク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集中のメモIDを保持する変数。使われ方？</t>
+    <rPh sb="16" eb="17">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トライ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非同期処理。fetch関数を使ってHTTPリクエストを送信します。この場合、apiUrlという変数に格納されたURLにリクエストを送ります。</t>
+    <rPh sb="0" eb="3">
+      <t>ヒドウキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リクエストヘッダーを設定します。ここでは、送信するデータがJSON形式であることを示すためにContent-Typeをapplication/jsonに設定しています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リクエストのHTTPメソッドを指定します。この場合、データを送信するためにPOSTメソッドを使用しています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bodyプロパティには送信するデータを指定します。この場合、memoというオブジェクトをJSON.stringifyを使ってJSON文字列に変換し、リクエストの本文として送信しています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>引数で受け取った"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>memo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" をJSON形式で送信</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>新規登録関数。引数</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>memo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の受け取り方は？</t>
+    </r>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>responseオブジェクトからJSON形式のデータを抽出し、data変数に格納します。awaitキーワードを使うことで、非同期処理が完了するまで待機します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>取得したデータのmessageプロパティを</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>アラート</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>で表示します。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォーム初期化関数(自作) をコール</t>
+    <rPh sb="4" eb="7">
+      <t>ショキカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">// </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>メモ一覧を最新の状態に更新</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>await</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fetchAndDisplayMemos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>();</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自作関数コールし、メモ一覧を最新の状態に更新</t>
+    <rPh sb="0" eb="2">
+      <t>ジサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レスポンス成功の場合</t>
+    <rPh sb="5" eb="7">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑戻り値はjsonをパースしたjavascriptの型</t>
+    <rPh sb="1" eb="2">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -26413,7 +26682,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -26456,6 +26725,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -39670,8 +39940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0D64C5-B6A3-4074-B9BA-ABA562BB6D37}">
   <dimension ref="A1:C625"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -39729,8 +39999,8 @@
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>736</v>
+      <c r="C5" s="18" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -39782,8 +40052,8 @@
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" t="s">
-        <v>735</v>
+      <c r="C10" s="18" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -39867,7 +40137,7 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -40071,6 +40341,9 @@
       <c r="B37" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="C37" s="18" t="s">
+        <v>749</v>
+      </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
@@ -40079,6 +40352,9 @@
       <c r="B38" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="C38" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
@@ -40087,6 +40363,9 @@
       <c r="B39" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="C39" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
@@ -40095,6 +40374,9 @@
       <c r="B40" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="C40" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
@@ -40103,6 +40385,9 @@
       <c r="B41" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="C41" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
@@ -40111,6 +40396,9 @@
       <c r="B42" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="C42" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
@@ -40119,6 +40407,9 @@
       <c r="B43" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="C43" t="s">
+        <v>746</v>
+      </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
@@ -40127,6 +40418,9 @@
       <c r="B44" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="C44" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
@@ -40135,6 +40429,9 @@
       <c r="B45" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="C45" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
@@ -40143,6 +40440,9 @@
       <c r="B46" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="C46" t="s">
+        <v>747</v>
+      </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
@@ -40151,6 +40451,9 @@
       <c r="B47" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="C47" t="s">
+        <v>748</v>
+      </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
@@ -40167,6 +40470,9 @@
       <c r="B49" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="C49" t="s">
+        <v>750</v>
+      </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
@@ -40175,6 +40481,9 @@
       <c r="B50" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="C50" t="s">
+        <v>757</v>
+      </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
@@ -40183,6 +40492,9 @@
       <c r="B51" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="C51" t="s">
+        <v>756</v>
+      </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
@@ -40191,6 +40503,9 @@
       <c r="B52" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="C52" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
@@ -40199,6 +40514,9 @@
       <c r="B53" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="C53" t="s">
+        <v>751</v>
+      </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
@@ -40207,6 +40525,9 @@
       <c r="B54" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="C54" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
@@ -40215,13 +40536,19 @@
       <c r="B55" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="C55" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
         <v>56</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>43</v>
+        <v>753</v>
+      </c>
+      <c r="C56" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -40229,7 +40556,10 @@
         <v>57</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>44</v>
+        <v>754</v>
+      </c>
+      <c r="C57" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -40239,6 +40569,9 @@
       <c r="B58" s="4" t="s">
         <v>45</v>
       </c>
+      <c r="C58" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
@@ -40247,16 +40580,19 @@
       <c r="B59" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="C59" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
         <v>60</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C60" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -40267,7 +40603,7 @@
         <v>47</v>
       </c>
       <c r="C61" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -40300,7 +40636,7 @@
         <v>50</v>
       </c>
       <c r="C64" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -40333,7 +40669,7 @@
         <v>53</v>
       </c>
       <c r="C67" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -40385,6 +40721,9 @@
         <v>72</v>
       </c>
       <c r="B72" s="3"/>
+      <c r="C72" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
@@ -40393,6 +40732,9 @@
       <c r="B73" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C73" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
@@ -40401,6 +40743,9 @@
       <c r="B74" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="C74" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
@@ -40408,6 +40753,9 @@
       </c>
       <c r="B75" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="76" spans="1:3">
